--- a/User_Data/GM2_Data/FX_Data/China_FX.xlsx
+++ b/User_Data/GM2_Data/FX_Data/China_FX.xlsx
@@ -12964,13 +12964,13 @@
         <v>7.2198</v>
       </c>
       <c r="D501" t="n">
-        <v>7.2359</v>
+        <v>7.2472</v>
       </c>
       <c r="E501" t="n">
         <v>7.2198</v>
       </c>
       <c r="F501" t="n">
-        <v>7.2325</v>
+        <v>7.2459</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>

--- a/User_Data/GM2_Data/FX_Data/China_FX.xlsx
+++ b/User_Data/GM2_Data/FX_Data/China_FX.xlsx
@@ -12964,13 +12964,13 @@
         <v>7.2431</v>
       </c>
       <c r="D501" t="n">
-        <v>7.2477</v>
+        <v>7.2689</v>
       </c>
       <c r="E501" t="n">
         <v>7.2362</v>
       </c>
       <c r="F501" t="n">
-        <v>7.2447</v>
+        <v>7.2667</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>

--- a/User_Data/GM2_Data/FX_Data/China_FX.xlsx
+++ b/User_Data/GM2_Data/FX_Data/China_FX.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>30376.33333333333</v>
+        <v>30376.375</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30621.33333333333</v>
+        <v>30621.375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30651.33333333333</v>
+        <v>30651.375</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30683.33333333333</v>
+        <v>30683.375</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30713.33333333333</v>
+        <v>30713.375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30742.33333333333</v>
+        <v>30742.375</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30987.33333333333</v>
+        <v>30987.375</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>31019.33333333333</v>
+        <v>31019.375</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>31048.33333333333</v>
+        <v>31048.375</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>31079.33333333333</v>
+        <v>31079.375</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>31107.33333333333</v>
+        <v>31107.375</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>31352.33333333333</v>
+        <v>31352.375</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>31383.33333333333</v>
+        <v>31383.375</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>31413.33333333333</v>
+        <v>31413.375</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>31446.33333333333</v>
+        <v>31446.375</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>31474.33333333333</v>
+        <v>31474.375</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31719.33333333333</v>
+        <v>31719.375</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31747.33333333333</v>
+        <v>31747.375</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31778.33333333333</v>
+        <v>31778.375</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31810.33333333333</v>
+        <v>31810.375</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31838.33333333333</v>
+        <v>31838.375</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>32083.33333333333</v>
+        <v>32083.375</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>32112.33333333333</v>
+        <v>32112.375</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>32143.33333333333</v>
+        <v>32143.375</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>32174.33333333333</v>
+        <v>32174.375</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>32203.33333333333</v>
+        <v>32203.375</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>32448.33333333333</v>
+        <v>32448.375</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>32478.33333333333</v>
+        <v>32478.375</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32510.33333333333</v>
+        <v>32510.375</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32540.33333333333</v>
+        <v>32540.375</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32568.33333333333</v>
+        <v>32568.375</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33910.33333333334</v>
+        <v>33910.375</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33939.33333333334</v>
+        <v>33939.375</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33970.33333333334</v>
+        <v>33970.375</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>34001.33333333334</v>
+        <v>34001.375</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>34029.33333333334</v>
+        <v>34029.375</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>34274.33333333334</v>
+        <v>34274.375</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>34304.33333333334</v>
+        <v>34304.375</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>34337.33333333334</v>
+        <v>34337.375</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>34366.33333333334</v>
+        <v>34366.375</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>34394.33333333334</v>
+        <v>34394.375</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34639.33333333334</v>
+        <v>34639.375</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34669.33333333334</v>
+        <v>34669.375</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34701.33333333334</v>
+        <v>34701.375</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34731.33333333334</v>
+        <v>34731.375</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34759.33333333334</v>
+        <v>34759.375</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>35004.33333333334</v>
+        <v>35004.375</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>35034.33333333334</v>
+        <v>35034.375</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>35065.33333333334</v>
+        <v>35065.375</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>35096.33333333334</v>
+        <v>35096.375</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>35125.33333333334</v>
+        <v>35125.375</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>35370.33333333334</v>
+        <v>35370.375</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>35401.33333333334</v>
+        <v>35401.375</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>35431.33333333334</v>
+        <v>35431.375</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>35464.33333333334</v>
+        <v>35464.375</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35492.33333333334</v>
+        <v>35492.375</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35737.33333333334</v>
+        <v>35737.375</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35765.33333333334</v>
+        <v>35765.375</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35796.33333333334</v>
+        <v>35796.375</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35828.33333333334</v>
+        <v>35828.375</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35856.33333333334</v>
+        <v>35856.375</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>36101.33333333334</v>
+        <v>36101.375</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>36130.33333333334</v>
+        <v>36130.375</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>36161.33333333334</v>
+        <v>36161.375</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>36192.33333333334</v>
+        <v>36192.375</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>36220.33333333334</v>
+        <v>36220.375</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>36465.33333333334</v>
+        <v>36465.375</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36495.33333333334</v>
+        <v>36495.375</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36528.33333333334</v>
+        <v>36528.375</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36557.33333333334</v>
+        <v>36557.375</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36586.33333333334</v>
+        <v>36586.375</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36801.33333333334</v>
+        <v>36801.375</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36831.33333333334</v>
+        <v>36831.375</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36861.33333333334</v>
+        <v>36861.375</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36892.33333333334</v>
+        <v>36892.375</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36923.33333333334</v>
+        <v>36923.375</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36951.33333333334</v>
+        <v>36951.375</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>37196.33333333334</v>
+        <v>37196.375</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>37228.33333333334</v>
+        <v>37228.375</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>37257.33333333334</v>
+        <v>37257.375</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>37288.33333333334</v>
+        <v>37288.375</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>37316.33333333334</v>
+        <v>37316.375</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37561.33333333334</v>
+        <v>37561.375</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37592.33333333334</v>
+        <v>37592.375</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37622.33333333334</v>
+        <v>37622.375</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37655.33333333334</v>
+        <v>37655.375</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37683.33333333334</v>
+        <v>37683.375</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37928.33333333334</v>
+        <v>37928.375</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37956.33333333334</v>
+        <v>37956.375</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37987.33333333334</v>
+        <v>37987.375</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>38019.33333333334</v>
+        <v>38019.375</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>38047.33333333334</v>
+        <v>38047.375</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>38292.33333333334</v>
+        <v>38292.375</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>38322.33333333334</v>
+        <v>38322.375</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>38355.33333333334</v>
+        <v>38355.375</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>38384.33333333334</v>
+        <v>38384.375</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>38412.33333333334</v>
+        <v>38412.375</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38657.33333333334</v>
+        <v>38657.375</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38687.33333333334</v>
+        <v>38687.375</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38719.33333333334</v>
+        <v>38719.375</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38749.33333333334</v>
+        <v>38749.375</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38777.33333333334</v>
+        <v>38777.375</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>39022.33333333334</v>
+        <v>39022.375</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>39052.33333333334</v>
+        <v>39052.375</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>39083.33333333334</v>
+        <v>39083.375</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>39114.33333333334</v>
+        <v>39114.375</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>39142.33333333334</v>
+        <v>39142.375</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>39387.33333333334</v>
+        <v>39387.375</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>39419.33333333334</v>
+        <v>39419.375</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>39448.33333333334</v>
+        <v>39448.375</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>39479.33333333334</v>
+        <v>39479.375</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39510.33333333334</v>
+        <v>39510.375</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39539.33333333334</v>
+        <v>39539.375</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39755.33333333334</v>
+        <v>39755.375</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39783.33333333334</v>
+        <v>39783.375</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39814.33333333334</v>
+        <v>39814.375</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39846.33333333334</v>
+        <v>39846.375</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39874.33333333334</v>
+        <v>39874.375</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39904.33333333334</v>
+        <v>39904.375</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>40119.33333333334</v>
+        <v>40119.375</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>40148.33333333334</v>
+        <v>40148.375</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>40179.33333333334</v>
+        <v>40179.375</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>40210.33333333334</v>
+        <v>40210.375</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>40238.33333333334</v>
+        <v>40238.375</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>40269.33333333334</v>
+        <v>40269.375</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>40483.33333333334</v>
+        <v>40483.375</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40513.33333333334</v>
+        <v>40513.375</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40546.33333333334</v>
+        <v>40546.375</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40575.33333333334</v>
+        <v>40575.375</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40603.33333333334</v>
+        <v>40603.375</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40634.33333333334</v>
+        <v>40634.375</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40819.33333333334</v>
+        <v>40819.375</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40848.33333333334</v>
+        <v>40848.375</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40878.33333333334</v>
+        <v>40878.375</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40910.33333333334</v>
+        <v>40910.375</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40940.33333333334</v>
+        <v>40940.375</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40969.33333333334</v>
+        <v>40969.375</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>41214.33333333334</v>
+        <v>41214.375</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>41246.33333333334</v>
+        <v>41246.375</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>41275.33333333334</v>
+        <v>41275.375</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>41306.33333333334</v>
+        <v>41306.375</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>41334.33333333334</v>
+        <v>41334.375</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>41365.33333333334</v>
+        <v>41365.375</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41579.33333333334</v>
+        <v>41579.375</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41610.33333333334</v>
+        <v>41610.375</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41640.33333333334</v>
+        <v>41640.375</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41673.33333333334</v>
+        <v>41673.375</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41701.33333333334</v>
+        <v>41701.375</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41730.33333333334</v>
+        <v>41730.375</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41946.33333333334</v>
+        <v>41946.375</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41974.33333333334</v>
+        <v>41974.375</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>42005.33333333334</v>
+        <v>42005.375</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>42037.33333333334</v>
+        <v>42037.375</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>42065.33333333334</v>
+        <v>42065.375</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>42095.33333333334</v>
+        <v>42095.375</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>42310.33333333334</v>
+        <v>42310.375</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>42339.33333333334</v>
+        <v>42339.375</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>42370.33333333334</v>
+        <v>42370.375</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>42401.33333333334</v>
+        <v>42401.375</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>42430.33333333334</v>
+        <v>42430.375</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>42461.33333333334</v>
+        <v>42461.375</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42646.33333333334</v>
+        <v>42646.375</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42675.33333333334</v>
+        <v>42675.375</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42705.33333333334</v>
+        <v>42705.375</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42737.33333333334</v>
+        <v>42737.375</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42767.33333333334</v>
+        <v>42767.375</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42795.33333333334</v>
+        <v>42795.375</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>43010.33333333334</v>
+        <v>43010.375</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>43040.33333333334</v>
+        <v>43040.375</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>43070.33333333334</v>
+        <v>43070.375</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>43101.33333333334</v>
+        <v>43101.375</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>43132.33333333334</v>
+        <v>43132.375</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>43160.33333333334</v>
+        <v>43160.375</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>43405.33333333334</v>
+        <v>43405.375</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>43437.33333333334</v>
+        <v>43437.375</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43466.33333333334</v>
+        <v>43466.375</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43497.33333333334</v>
+        <v>43497.375</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43525.33333333334</v>
+        <v>43525.375</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43556.33333333334</v>
+        <v>43556.375</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43770.33333333334</v>
+        <v>43770.375</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43801.33333333334</v>
+        <v>43801.375</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43831.33333333334</v>
+        <v>43831.375</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43864.33333333334</v>
+        <v>43864.375</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43892.33333333334</v>
+        <v>43892.375</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43922.33333333334</v>
+        <v>43922.375</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44137.33333333334</v>
+        <v>44137.375</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44166.33333333334</v>
+        <v>44166.375</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44197.33333333334</v>
+        <v>44197.375</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44228.33333333334</v>
+        <v>44228.375</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44256.33333333334</v>
+        <v>44256.375</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44287.33333333334</v>
+        <v>44287.375</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44501.33333333334</v>
+        <v>44501.375</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44531.33333333334</v>
+        <v>44531.375</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44564.33333333334</v>
+        <v>44564.375</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44593.33333333334</v>
+        <v>44593.375</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44621.33333333334</v>
+        <v>44621.375</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44652.33333333334</v>
+        <v>44652.375</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44837.33333333334</v>
+        <v>44837.375</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44866.33333333334</v>
+        <v>44866.375</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44896.33333333334</v>
+        <v>44896.375</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44928.33333333334</v>
+        <v>44928.375</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44958.33333333334</v>
+        <v>44958.375</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44986.33333333334</v>
+        <v>44986.375</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45201.33333333334</v>
+        <v>45201.375</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45231.33333333334</v>
+        <v>45231.375</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45261.33333333334</v>
+        <v>45261.375</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45292.33333333334</v>
+        <v>45292.375</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45323.33333333334</v>
+        <v>45323.375</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45352.33333333334</v>
+        <v>45352.375</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45383.33333333334</v>
+        <v>45383.375</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -12964,13 +12964,13 @@
         <v>7.0171</v>
       </c>
       <c r="D501" t="n">
-        <v>7.0176</v>
+        <v>7.0818</v>
       </c>
       <c r="E501" t="n">
         <v>7.0171</v>
       </c>
       <c r="F501" t="n">
-        <v>7.0171</v>
+        <v>7.0645</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>
